--- a/biology/Médecine/Alexandre_Louria/Alexandre_Louria.xlsx
+++ b/biology/Médecine/Alexandre_Louria/Alexandre_Louria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Romanovitch Louria ou Luria (en russe : Александр Романович Лурия) est un neurologue et psychologue russe puis soviétique, né le 16 juillet 1902 à Kazan et mort le 14 août 1977 à Moscou.
 </t>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1921, il termine ses études à la faculté des sciences sociales de l'université de Kazan. Il commence ses premières recherches en psychologie expérimentale.
 En 1937, il est diplômé de l'Institut médical no 1 de Moscou, docteur des sciences pédagogiques en psychologie, et commence des recherches sur les lésions cérébrales à l'Institut neurochirurgical de Moscou.
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A Moscou, dès 1923, il travaille sur les problèmes généraux de la psychologie expérimentale de l'enfant et de la psychopathologie. Il s'intéressera aux problèmes de localisation des fonctions dans le cortex cérébral et à la récupération des fonctions après lésions cérébrales.
 Il porte un grand intérêt à l’analyse expérimentale des associations verbales et à l'analyse objective des processus émotionnels.
